--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2A146-9138-4A27-90D8-E4D10F429097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE4BE02-1DA8-4778-8F2E-32E70D19306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,12 +176,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -194,13 +209,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
@@ -483,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J2" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,7 +519,7 @@
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,9 +534,8 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,11 +550,10 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -571,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -603,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -632,7 +646,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -661,7 +675,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -690,7 +704,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -719,7 +733,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -748,7 +762,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -777,7 +791,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -806,7 +820,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -835,7 +849,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>

--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE4BE02-1DA8-4778-8F2E-32E70D19306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8043F712-39F6-4075-8CE9-BB3F899FFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM_FUR_VS_AB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="A1:J2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,6 +882,35 @@
         <v>1009</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4010</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1009</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8043F712-39F6-4075-8CE9-BB3F899FFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B002C32-C3CD-449C-B2EF-8EA207A091A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>SM_FUR_VS_AB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM_WH_RACK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
@@ -911,6 +915,35 @@
         <v>1009</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6002</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1010</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B002C32-C3CD-449C-B2EF-8EA207A091A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FCBA60-B106-4C96-A0DE-5228496A2DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51165" yWindow="8715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,47 +87,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>SM_FUR_DIS_A</t>
+  </si>
+  <si>
+    <t>SM_FUR_FG_A</t>
+  </si>
+  <si>
+    <t>SM_FUR_FZ_A</t>
+  </si>
+  <si>
+    <t>SM_FUR_RT_A</t>
+  </si>
+  <si>
+    <t>SM_FUR_VS_B</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SM_FUR_COT_A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SM_FUR_COT_B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_FUR_DIS_A</t>
-  </si>
-  <si>
-    <t>SM_FUR_FG_A</t>
   </si>
   <si>
     <t>SM_FUR_FG_B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_FUR_FZ_A</t>
-  </si>
-  <si>
-    <t>SM_FUR_RT_A</t>
   </si>
   <si>
     <t>SM_FUR_VS_A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_FUR_VS_B</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SM_FUR_VS_AB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SM_WH_RACK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,7 +504,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A5" sqref="A5:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,7 +557,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -626,25 +620,25 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>1000</v>
       </c>
       <c r="H5" s="3">
@@ -655,25 +649,25 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>1000</v>
       </c>
       <c r="H6" s="3">
@@ -684,25 +678,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>1000</v>
       </c>
       <c r="H7" s="3">
@@ -713,25 +707,25 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
       <c r="H8" s="3">
@@ -742,25 +736,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
       <c r="H9" s="3">
@@ -771,25 +765,25 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
       <c r="H10" s="3">
@@ -800,25 +794,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>1000</v>
       </c>
       <c r="H11" s="3">
@@ -829,25 +823,25 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
       <c r="H12" s="3">
@@ -858,25 +852,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>1000</v>
       </c>
       <c r="H13" s="3">
@@ -887,25 +881,25 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>8</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
       <c r="H14" s="3">
@@ -916,25 +910,25 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>4</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
       <c r="H15" s="3">

--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FCBA60-B106-4C96-A0DE-5228496A2DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03998B-3E3C-40E5-92AA-E4E426FCA624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51165" yWindow="8715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>StorageType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>StandName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>SM_WH_RACK</t>
+  </si>
+  <si>
+    <t>ZoneType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -557,66 +557,66 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -624,13 +624,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -653,13 +653,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -682,13 +682,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -711,13 +711,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -740,13 +740,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -769,13 +769,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -798,13 +798,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -827,13 +827,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -856,13 +856,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -885,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -914,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>

--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03998B-3E3C-40E5-92AA-E4E426FCA624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C43C5-4C2A-41AA-B0CC-9C79B45FC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,7 +932,7 @@
         <v>10000</v>
       </c>
       <c r="H15" s="3">
-        <v>6002</v>
+        <v>4011</v>
       </c>
       <c r="I15" s="3">
         <v>1010</v>

--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C43C5-4C2A-41AA-B0CC-9C79B45FC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8695A3B-D3EA-4504-A696-A1D9852613DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21495" yWindow="4710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,45 +83,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SM_FUR_DIS_A</t>
-  </si>
-  <si>
-    <t>SM_FUR_FG_A</t>
-  </si>
-  <si>
-    <t>SM_FUR_FZ_A</t>
-  </si>
-  <si>
-    <t>SM_FUR_RT_A</t>
-  </si>
-  <si>
-    <t>SM_FUR_VS_B</t>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SM_FUR_COT_A</t>
-  </si>
-  <si>
-    <t>SM_FUR_COT_B</t>
-  </si>
-  <si>
-    <t>SM_FUR_FG_B</t>
-  </si>
-  <si>
-    <t>SM_FUR_VS_A</t>
-  </si>
-  <si>
-    <t>SM_FUR_VS_AB</t>
-  </si>
-  <si>
-    <t>SM_WH_RACK</t>
-  </si>
-  <si>
     <t>ZoneType</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashier's desk 1</t>
+  </si>
+  <si>
+    <t>cashier's desk 2</t>
+  </si>
+  <si>
+    <t>Normal Display 1</t>
+  </si>
+  <si>
+    <t>refrigeration 1</t>
+  </si>
+  <si>
+    <t>refrigeration 2</t>
+  </si>
+  <si>
+    <t>Frozen Display 1</t>
+  </si>
+  <si>
+    <t>Normal Display 2</t>
+  </si>
+  <si>
+    <t>Fresh Display 1</t>
+  </si>
+  <si>
+    <t>Palette</t>
+  </si>
+  <si>
+    <t>Shelf Stand 1</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A5" sqref="A5:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,10 +554,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -630,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -659,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -688,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -717,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -746,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -775,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -804,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -862,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -885,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -903,10 +900,10 @@
         <v>1000</v>
       </c>
       <c r="H14" s="3">
-        <v>4010</v>
+        <v>4012</v>
       </c>
       <c r="I14" s="3">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -914,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>

--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8695A3B-D3EA-4504-A696-A1D9852613DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290B12C-94ED-4344-8E62-5CA545F8DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21495" yWindow="4710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,6 +119,20 @@
   </si>
   <si>
     <t>Shelf Stand 1</t>
+  </si>
+  <si>
+    <t>ArrangementOffsetX</t>
+  </si>
+  <si>
+    <t>ArrangementOffsetY</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fresh Display 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,7 +532,7 @@
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +548,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +566,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -583,8 +597,14 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -615,8 +635,14 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -633,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
@@ -644,8 +670,14 @@
       <c r="I5" s="3">
         <v>1001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -662,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>1000</v>
@@ -673,8 +705,14 @@
       <c r="I6" s="3">
         <v>1002</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -691,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>1000</v>
@@ -702,8 +740,14 @@
       <c r="I7" s="3">
         <v>1003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -720,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -731,8 +775,14 @@
       <c r="I8" s="3">
         <v>1004</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -749,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
@@ -760,8 +810,14 @@
       <c r="I9" s="3">
         <v>1005</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -778,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>1000</v>
@@ -789,8 +845,14 @@
       <c r="I10" s="3">
         <v>1006</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -807,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3">
         <v>1000</v>
@@ -818,8 +880,14 @@
       <c r="I11" s="3">
         <v>1007</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -836,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -847,8 +915,14 @@
       <c r="I12" s="3">
         <v>1008</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -859,13 +933,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <v>1000</v>
@@ -876,8 +950,14 @@
       <c r="I13" s="3">
         <v>1009</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -894,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
         <v>1000</v>
@@ -905,8 +985,14 @@
       <c r="I14" s="3">
         <v>1011</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -933,6 +1019,12 @@
       </c>
       <c r="I15" s="3">
         <v>1010</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/Storage.xlsx
+++ b/Content/TableData/Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290B12C-94ED-4344-8E62-5CA545F8DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8803566C-E47E-4402-867E-D2E72316913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>StorageType 1 = Pallet, 2 = Shelf, 3 = Display</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,6 +128,14 @@
   </si>
   <si>
     <t>Fresh Display 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StorageType 1 = Display, 2 = Shelf, 3 = Pallet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wardrobe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -568,10 +572,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -592,16 +596,16 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -633,13 +637,13 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -653,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -688,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -723,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -758,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -793,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -828,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -863,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -898,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -933,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -968,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1003,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1026,6 +1030,46 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4013</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1010</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
